--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_diff_versionB_Abs_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_diff_versionB_Abs_deltax_22-Dec-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF855C75-88E2-42EB-A040-E534BEEDDF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5EEEF6C-F393-430D-B9DF-9071309A6A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{91277044-1872-412E-B5BD-62C261DAFE2D}"/>
+    <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{140C8EB2-40D3-45C9-8625-83A844C5A3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Var1</t>
+    <t>Var1_1</t>
+  </si>
+  <si>
+    <t>Var1_2</t>
+  </si>
+  <si>
+    <t>Var1_3</t>
+  </si>
+  <si>
+    <t>Var1_4</t>
+  </si>
+  <si>
+    <t>Var1_5</t>
+  </si>
+  <si>
+    <t>Var1_6</t>
+  </si>
+  <si>
+    <t>Var1_7</t>
+  </si>
+  <si>
+    <t>Var1_8</t>
   </si>
 </sst>
 </file>
@@ -392,18 +413,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CF56EC-9978-4AFF-BCE5-40EF0958EB7A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D621A4EC-CD5A-438F-8A30-49AAE2D33810}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.2821782287501189E-3</v>
+      </c>
+      <c r="B2">
+        <v>2.0494776136252835E-2</v>
+      </c>
+      <c r="C2">
+        <v>-1.4822238815767413E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.5510996507125431E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.2821782287501184</v>
+      </c>
+      <c r="F2">
+        <v>20.494776136252835</v>
+      </c>
+      <c r="G2">
+        <v>-1.4822238815767412</v>
+      </c>
+      <c r="H2">
+        <v>2.5510996507125432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.14316751035724529</v>
+      </c>
+      <c r="B3">
+        <v>2.9787705086429816E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0511920545497274E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.5884773347364405E-3</v>
+      </c>
+      <c r="E3">
+        <v>4.282178228750122</v>
+      </c>
+      <c r="F3">
+        <v>20.494776136252838</v>
+      </c>
+      <c r="G3">
+        <v>-1.4822238815767175</v>
+      </c>
+      <c r="H3">
+        <v>2.5510996507125423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.2821782287501223E-3</v>
+      </c>
+      <c r="B4">
+        <v>2.0494776136252838E-2</v>
+      </c>
+      <c r="C4">
+        <v>-1.4822238815767174E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.5510996507125423E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.2821782287501309</v>
+      </c>
+      <c r="F4">
+        <v>20.494776136252845</v>
+      </c>
+      <c r="G4">
+        <v>-1.4822238815766791</v>
+      </c>
+      <c r="H4">
+        <v>2.5510996507125467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.14316751035724529</v>
+      </c>
+      <c r="B5">
+        <v>2.9787705086429823E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.0511920545497274E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.5884773347364435E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.2821782287501398</v>
+      </c>
+      <c r="F5">
+        <v>20.494776136252845</v>
+      </c>
+      <c r="G5">
+        <v>-1.4822238815766124</v>
+      </c>
+      <c r="H5">
+        <v>2.5510996507125467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.282178228750131E-3</v>
+      </c>
+      <c r="B6">
+        <v>2.0494776136252845E-2</v>
+      </c>
+      <c r="C6">
+        <v>-1.482223881576679E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.5510996507125466E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.14316751035724529</v>
+      </c>
+      <c r="B7">
+        <v>2.9787705086429816E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.0511920545497253E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.5884773347364392E-3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.2821782287501397E-3</v>
+      </c>
+      <c r="B8">
+        <v>2.0494776136252845E-2</v>
+      </c>
+      <c r="C8">
+        <v>-1.4822238815766125E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.5510996507125466E-3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.14316751035724523</v>
+      </c>
+      <c r="B9">
+        <v>2.9787705086429805E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.0511920545497281E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5884773347364418E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-3.4103263325690435E-3</v>
+      </c>
+      <c r="B10">
+        <v>4.2152343246384984E-3</v>
+      </c>
+      <c r="C10">
+        <v>6.2275409514549066E-4</v>
+      </c>
+      <c r="D10">
+        <v>2.3678747622136274E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.4103263325690434</v>
+      </c>
+      <c r="F10">
+        <v>4.215234324638498</v>
+      </c>
+      <c r="G10">
+        <v>0.62275409514549063</v>
+      </c>
+      <c r="H10">
+        <v>0.23678747622136273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.4867648413940798E-2</v>
+      </c>
+      <c r="B11">
+        <v>6.4357265660842777E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.5382987026198478E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.410565864846355E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.4103263325689852</v>
+      </c>
+      <c r="F11">
+        <v>4.2152343246384829</v>
+      </c>
+      <c r="G11">
+        <v>0.62275409514547864</v>
+      </c>
+      <c r="H11">
+        <v>0.23678747622136298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-3.4103263325689854E-3</v>
+      </c>
+      <c r="B12">
+        <v>4.2152343246384828E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.2275409514547862E-4</v>
+      </c>
+      <c r="D12">
+        <v>2.3678747622136298E-4</v>
+      </c>
+      <c r="E12">
+        <v>-3.4103263325690119</v>
+      </c>
+      <c r="F12">
+        <v>4.2152343246384856</v>
+      </c>
+      <c r="G12">
+        <v>0.62275409514545477</v>
+      </c>
+      <c r="H12">
+        <v>0.23678747622136251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.4867648413940757E-2</v>
+      </c>
+      <c r="B13">
+        <v>6.4357265660842568E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.5382987026198475E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.4105658648463804E-4</v>
+      </c>
+      <c r="E13">
+        <v>-3.4103263325689381</v>
+      </c>
+      <c r="F13">
+        <v>4.2152343246384918</v>
+      </c>
+      <c r="G13">
+        <v>0.62275409514553348</v>
+      </c>
+      <c r="H13">
+        <v>0.23678747622136162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-3.4103263325690118E-3</v>
+      </c>
+      <c r="B14">
+        <v>4.2152343246384854E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.2275409514545477E-4</v>
+      </c>
+      <c r="D14">
+        <v>2.367874762213625E-4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.4867648413940673E-2</v>
+      </c>
+      <c r="B15">
+        <v>6.4357265660842603E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.5382987026198461E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.4105658648463696E-4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-3.4103263325689381E-3</v>
+      </c>
+      <c r="B16">
+        <v>4.2152343246384914E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.2275409514553348E-4</v>
+      </c>
+      <c r="D16">
+        <v>2.3678747622136163E-4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.4867648413940812E-2</v>
+      </c>
+      <c r="B17">
+        <v>6.4357265660842924E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.5382987026198438E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.4105658648463523E-4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1.05878958277276E-4</v>
+      </c>
+      <c r="B18">
+        <v>2.1565133323023004E-3</v>
+      </c>
+      <c r="C18">
+        <v>-6.008844036131333E-5</v>
+      </c>
+      <c r="D18">
+        <v>2.8668633491981746E-5</v>
+      </c>
+      <c r="E18">
+        <v>-0.105878958277276</v>
+      </c>
+      <c r="F18">
+        <v>2.1565133323023002</v>
+      </c>
+      <c r="G18">
+        <v>-6.0088440361313333E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.8668633491981746E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.6461390236746281E-2</v>
+      </c>
+      <c r="B19">
+        <v>2.97356709478382E-3</v>
+      </c>
+      <c r="C19">
+        <v>5.3566516209199774E-3</v>
+      </c>
+      <c r="D19">
+        <v>4.1678261173863979E-5</v>
+      </c>
+      <c r="E19">
+        <v>-0.10587895827720095</v>
+      </c>
+      <c r="F19">
+        <v>2.1565133323022847</v>
+      </c>
+      <c r="G19">
+        <v>-6.0088440361244444E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.8668633491982353E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.0587895827720095E-4</v>
+      </c>
+      <c r="B20">
+        <v>2.1565133323022847E-3</v>
+      </c>
+      <c r="C20">
+        <v>-6.0088440361244443E-5</v>
+      </c>
+      <c r="D20">
+        <v>2.8668633491982352E-5</v>
+      </c>
+      <c r="E20">
+        <v>-0.10587895827701299</v>
+      </c>
+      <c r="F20">
+        <v>2.1565133323023029</v>
+      </c>
+      <c r="G20">
+        <v>-6.0088440361086848E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.8668633491981829E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.6461390236746156E-2</v>
+      </c>
+      <c r="B21">
+        <v>2.97356709478381E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.356651620920032E-3</v>
+      </c>
+      <c r="D21">
+        <v>4.1678261173863992E-5</v>
+      </c>
+      <c r="E21">
+        <v>-0.1058789582769275</v>
+      </c>
+      <c r="F21">
+        <v>2.1565133323022887</v>
+      </c>
+      <c r="G21">
+        <v>-6.0088440361002027E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.866863349198287E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.0587895827701299E-4</v>
+      </c>
+      <c r="B22">
+        <v>2.156513332302303E-3</v>
+      </c>
+      <c r="C22">
+        <v>-6.0088440361086847E-5</v>
+      </c>
+      <c r="D22">
+        <v>2.866863349198183E-5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.6461390236746281E-2</v>
+      </c>
+      <c r="B23">
+        <v>2.9735670947838482E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.3566516209199869E-3</v>
+      </c>
+      <c r="D23">
+        <v>4.1678261173863267E-5</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1.058789582769275E-4</v>
+      </c>
+      <c r="B24">
+        <v>2.1565133323022886E-3</v>
+      </c>
+      <c r="C24">
+        <v>-6.0088440361002029E-5</v>
+      </c>
+      <c r="D24">
+        <v>2.8668633491982871E-5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.6461390236746183E-2</v>
+      </c>
+      <c r="B25">
+        <v>2.9735670947837979E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3566516209200849E-3</v>
+      </c>
+      <c r="D25">
+        <v>4.1678261173864568E-5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1.3495732424265371E-3</v>
+      </c>
+      <c r="B26">
+        <v>4.2044435285258321E-4</v>
+      </c>
+      <c r="C26">
+        <v>2.555483998928293E-5</v>
+      </c>
+      <c r="D26">
+        <v>9.0372039719194212E-7</v>
+      </c>
+      <c r="E26">
+        <v>-1.3495732424265372</v>
+      </c>
+      <c r="F26">
+        <v>0.42044435285258319</v>
+      </c>
+      <c r="G26">
+        <v>2.5554839989282929E-2</v>
+      </c>
+      <c r="H26">
+        <v>9.037203971919421E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.0470516528970913E-2</v>
+      </c>
+      <c r="B27">
+        <v>5.9090967251421535E-4</v>
+      </c>
+      <c r="C27">
+        <v>9.5077406288966932E-4</v>
+      </c>
+      <c r="D27">
+        <v>1.2441626336830795E-6</v>
+      </c>
+      <c r="E27">
+        <v>-1.3495732424260087</v>
+      </c>
+      <c r="F27">
+        <v>0.4204443528525782</v>
+      </c>
+      <c r="G27">
+        <v>2.5554839990303058E-2</v>
+      </c>
+      <c r="H27">
+        <v>9.0372039719182284E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1.3495732424260087E-3</v>
+      </c>
+      <c r="B28">
+        <v>4.2044435285257817E-4</v>
+      </c>
+      <c r="C28">
+        <v>2.5554839990303059E-5</v>
+      </c>
+      <c r="D28">
+        <v>9.0372039719182279E-7</v>
+      </c>
+      <c r="E28">
+        <v>-1.3495732424248228</v>
+      </c>
+      <c r="F28">
+        <v>0.42044435285258813</v>
+      </c>
+      <c r="G28">
+        <v>2.5554839992394829E-2</v>
+      </c>
+      <c r="H28">
+        <v>9.0372039719182565E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.0470516528970844E-2</v>
+      </c>
+      <c r="B29">
+        <v>5.909096725142121E-4</v>
+      </c>
+      <c r="C29">
+        <v>9.5077406288957857E-4</v>
+      </c>
+      <c r="D29">
+        <v>1.2441626336840684E-6</v>
+      </c>
+      <c r="E29">
+        <v>-1.3495732424242601</v>
+      </c>
+      <c r="F29">
+        <v>0.42044435285258119</v>
+      </c>
+      <c r="G29">
+        <v>2.5554839993835676E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.0372039719101294E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.3495732424248228E-3</v>
+      </c>
+      <c r="B30">
+        <v>4.2044435285258815E-4</v>
+      </c>
+      <c r="C30">
+        <v>2.5554839992394827E-5</v>
+      </c>
+      <c r="D30">
+        <v>9.0372039719182565E-7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.047051652897116E-2</v>
+      </c>
+      <c r="B31">
+        <v>5.9090967251421731E-4</v>
+      </c>
+      <c r="C31">
+        <v>9.5077406288952295E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.2441626336824438E-6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.3495732424242601E-3</v>
+      </c>
+      <c r="B32">
+        <v>4.2044435285258121E-4</v>
+      </c>
+      <c r="C32">
+        <v>2.5554839993835678E-5</v>
+      </c>
+      <c r="D32">
+        <v>9.0372039719101292E-7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.0470516528971052E-2</v>
+      </c>
+      <c r="B33">
+        <v>5.9090967251420137E-4</v>
+      </c>
+      <c r="C33">
+        <v>9.5077406288905728E-4</v>
+      </c>
+      <c r="D33">
+        <v>1.2441626336814443E-6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.4299959117569083E-4</v>
+      </c>
+      <c r="B34">
+        <v>2.1167841624853903E-4</v>
+      </c>
+      <c r="C34">
+        <v>-1.1852653809133695E-5</v>
+      </c>
+      <c r="D34">
+        <v>2.5575828651479172E-7</v>
+      </c>
+      <c r="E34">
+        <v>-0.14299959117569083</v>
+      </c>
+      <c r="F34">
+        <v>0.21167841624853903</v>
+      </c>
+      <c r="G34">
+        <v>-1.1852653809133695E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.5575828651479174E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.4555749283450353E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.8691760648005951E-4</v>
+      </c>
+      <c r="C35">
+        <v>5.0583957416087944E-4</v>
+      </c>
+      <c r="D35">
+        <v>3.6894394074495163E-7</v>
+      </c>
+      <c r="E35">
+        <v>-0.1429995911773827</v>
+      </c>
+      <c r="F35">
+        <v>0.21167841624854089</v>
+      </c>
+      <c r="G35">
+        <v>-1.1852653811537439E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.5575828651469844E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.429995911773827E-4</v>
+      </c>
+      <c r="B36">
+        <v>2.116784162485409E-4</v>
+      </c>
+      <c r="C36">
+        <v>-1.1852653811537439E-5</v>
+      </c>
+      <c r="D36">
+        <v>2.5575828651469844E-7</v>
+      </c>
+      <c r="E36">
+        <v>-0.14299959117921679</v>
+      </c>
+      <c r="F36">
+        <v>0.21167841624855874</v>
+      </c>
+      <c r="G36">
+        <v>-1.1852653816460834E-2</v>
+      </c>
+      <c r="H36">
+        <v>2.5575828651532988E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.4555749283450383E-2</v>
+      </c>
+      <c r="B37">
+        <v>2.8691760648008867E-4</v>
+      </c>
+      <c r="C37">
+        <v>5.0583957416073058E-4</v>
+      </c>
+      <c r="D37">
+        <v>3.6894394074438618E-7</v>
+      </c>
+      <c r="E37">
+        <v>-0.14299959118159578</v>
+      </c>
+      <c r="F37">
+        <v>0.21167841624852099</v>
+      </c>
+      <c r="G37">
+        <v>-1.1852653821068593E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.5575828651527816E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1.4299959117921679E-4</v>
+      </c>
+      <c r="B38">
+        <v>2.1167841624855873E-4</v>
+      </c>
+      <c r="C38">
+        <v>-1.1852653816460834E-5</v>
+      </c>
+      <c r="D38">
+        <v>2.5575828651532991E-7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.4555749283451009E-2</v>
+      </c>
+      <c r="B39">
+        <v>2.8691760648014148E-4</v>
+      </c>
+      <c r="C39">
+        <v>5.0583957416123961E-4</v>
+      </c>
+      <c r="D39">
+        <v>3.6894394074629174E-7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-1.4299959118159577E-4</v>
+      </c>
+      <c r="B40">
+        <v>2.1167841624852098E-4</v>
+      </c>
+      <c r="C40">
+        <v>-1.1852653821068593E-5</v>
+      </c>
+      <c r="D40">
+        <v>2.5575828651527818E-7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.4555749283449661E-2</v>
+      </c>
+      <c r="B41">
+        <v>2.869176064800485E-4</v>
+      </c>
+      <c r="C41">
+        <v>5.0583957416108034E-4</v>
+      </c>
+      <c r="D41">
+        <v>3.6894394074619385E-7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
@@ -413,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FA0D64-35EF-4DB5-ADAC-27883F0B4DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079EF590-1B0C-41B3-A84B-7D886A1D92C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -425,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1291DCF7-8312-45BA-8A78-FD954720DD33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031F75B9-33D5-4690-89AB-2BBE58A9F928}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
